--- a/risultati.xlsx
+++ b/risultati.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dazza\Università\I ANNO M\CodeSmell-DesignPattern-Experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xzeni\OneDrive\Desktop\CodeSmell-DesignPattern-Experiment-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C672867D-F926-4748-A181-BCE8DE1E16B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2409AF1-ABAA-457D-898D-D603E76BAC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Risposte ai moduli" sheetId="2" r:id="rId1"/>
-    <sheet name="dataset" sheetId="1" r:id="rId2"/>
+    <sheet name="dataset" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -848,48 +848,9 @@
     <t>Fornisce la rappresentazione di una interfaccia grafica</t>
   </si>
   <si>
-    <t>Domanda</t>
-  </si>
-  <si>
     <t>Gruppo</t>
   </si>
   <si>
-    <t>EM_S1</t>
-  </si>
-  <si>
-    <t>EM_S2</t>
-  </si>
-  <si>
-    <t>EM_S3</t>
-  </si>
-  <si>
-    <t>EM_S4</t>
-  </si>
-  <si>
-    <t>EM_S5</t>
-  </si>
-  <si>
-    <t>EM_S6</t>
-  </si>
-  <si>
-    <t>EC_S1</t>
-  </si>
-  <si>
-    <t>EC_S2</t>
-  </si>
-  <si>
-    <t>EC_S3</t>
-  </si>
-  <si>
-    <t>EC_S4</t>
-  </si>
-  <si>
-    <t>EC_S5</t>
-  </si>
-  <si>
-    <t>EC_S6</t>
-  </si>
-  <si>
     <t>Effort_Medio_Comprensione</t>
   </si>
   <si>
@@ -900,13 +861,70 @@
   </si>
   <si>
     <t>Corrette_Manutenzione</t>
+  </si>
+  <si>
+    <t>Soggetto</t>
+  </si>
+  <si>
+    <t>EC_1</t>
+  </si>
+  <si>
+    <t>EC_2</t>
+  </si>
+  <si>
+    <t>EC_3</t>
+  </si>
+  <si>
+    <t>EC_4</t>
+  </si>
+  <si>
+    <t>EC_5</t>
+  </si>
+  <si>
+    <t>EC_6</t>
+  </si>
+  <si>
+    <t>EC_7</t>
+  </si>
+  <si>
+    <t>EC_8</t>
+  </si>
+  <si>
+    <t>EM_1</t>
+  </si>
+  <si>
+    <t>EM_2</t>
+  </si>
+  <si>
+    <t>EM_3</t>
+  </si>
+  <si>
+    <t>EM_4</t>
+  </si>
+  <si>
+    <t>EM_5</t>
+  </si>
+  <si>
+    <t>EM_6</t>
+  </si>
+  <si>
+    <t>EM_7</t>
+  </si>
+  <si>
+    <t>EM_8</t>
+  </si>
+  <si>
+    <t>Errate _Comprensione</t>
+  </si>
+  <si>
+    <t>Errate_Manutenzione</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -949,21 +967,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -989,7 +995,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1019,17 +1025,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1050,12 +1045,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1065,21 +1176,35 @@
     <xf numFmtId="19" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{4C19BBB7-2A6D-4CA3-B7F4-E50F32CFBC7E}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1369,19 +1494,19 @@
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="73" width="18.7109375" style="3" customWidth="1"/>
-    <col min="74" max="74" width="34.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="73" width="18.6640625" style="3" customWidth="1"/>
+    <col min="74" max="74" width="34.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="36.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="46.42578125" style="3" customWidth="1"/>
-    <col min="79" max="87" width="18.7109375" style="3" customWidth="1"/>
-    <col min="88" max="16384" width="12.7109375" style="3"/>
+    <col min="76" max="76" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="36.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="46.44140625" style="3" customWidth="1"/>
+    <col min="79" max="87" width="18.6640625" style="3" customWidth="1"/>
+    <col min="88" max="16384" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -1877,7 +2002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>9</v>
       </c>
@@ -2125,7 +2250,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>11</v>
       </c>
@@ -2373,7 +2498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>13</v>
       </c>
@@ -2621,7 +2746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -2869,7 +2994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -3117,7 +3242,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
@@ -3200,7 +3325,7 @@
       <c r="CB8" s="1"/>
       <c r="CC8" s="1"/>
     </row>
-    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3448,7 +3573,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3696,7 +3821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -3944,7 +4069,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>16</v>
       </c>
@@ -4192,7 +4317,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>23</v>
       </c>
@@ -4440,7 +4565,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
@@ -4523,7 +4648,7 @@
       <c r="CB14" s="1"/>
       <c r="CC14" s="1"/>
     </row>
-    <row r="15" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>7</v>
       </c>
@@ -4741,7 +4866,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4959,7 +5084,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -5177,7 +5302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -5395,7 +5520,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -5468,7 +5593,7 @@
       <c r="BR19" s="1"/>
       <c r="BS19" s="1"/>
     </row>
-    <row r="20" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -5716,7 +5841,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>12</v>
       </c>
@@ -5964,7 +6089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -6212,7 +6337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6460,7 +6585,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:82" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>26</v>
       </c>
@@ -6714,1707 +6839,1602 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2301F889-C957-4D56-AE0C-8FDCA0D8D12C}">
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="13" t="s">
+      <c r="X1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="L1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" t="s">
-        <v>89</v>
-      </c>
-      <c r="P1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" t="s">
-        <v>98</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="28">
         <v>6</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="21">
+        <v>3</v>
+      </c>
+      <c r="E2" s="28">
+        <v>2</v>
+      </c>
+      <c r="F2" s="21">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>7</v>
+      </c>
+      <c r="H2" s="15">
+        <v>4</v>
+      </c>
+      <c r="I2" s="15">
+        <v>2</v>
+      </c>
+      <c r="J2" s="15">
+        <v>4</v>
+      </c>
+      <c r="K2" s="15">
+        <v>2</v>
+      </c>
+      <c r="L2" s="15">
+        <v>3</v>
+      </c>
+      <c r="M2" s="15">
+        <v>3</v>
+      </c>
+      <c r="N2" s="15">
+        <v>1</v>
+      </c>
+      <c r="O2" s="16">
+        <v>8</v>
+      </c>
+      <c r="P2" s="17">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>5</v>
+      </c>
+      <c r="R2" s="17">
+        <v>3</v>
+      </c>
+      <c r="S2" s="17">
+        <v>12</v>
+      </c>
+      <c r="T2" s="17">
+        <v>2</v>
+      </c>
+      <c r="U2" s="17">
+        <v>2</v>
+      </c>
+      <c r="V2" s="18">
+        <v>4</v>
+      </c>
+      <c r="W2" s="28">
+        <f>AVERAGE(G2:N2)</f>
+        <v>3.25</v>
+      </c>
+      <c r="X2" s="28">
+        <f>AVERAGE(O2:V2)</f>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="9">
         <v>6</v>
       </c>
-      <c r="E2" s="13">
+      <c r="D3" s="11">
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>3</v>
+      </c>
+      <c r="G3" s="19">
+        <v>5</v>
+      </c>
+      <c r="H3" s="20">
+        <v>8</v>
+      </c>
+      <c r="I3" s="20">
+        <v>6</v>
+      </c>
+      <c r="J3" s="20">
+        <v>6</v>
+      </c>
+      <c r="K3" s="20">
+        <v>2</v>
+      </c>
+      <c r="L3" s="20">
+        <v>4</v>
+      </c>
+      <c r="M3" s="25">
+        <v>3</v>
+      </c>
+      <c r="N3" s="20">
+        <v>2</v>
+      </c>
+      <c r="O3" s="16">
+        <v>5</v>
+      </c>
+      <c r="P3" s="17">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="17">
+        <v>6</v>
+      </c>
+      <c r="R3" s="17">
+        <v>20</v>
+      </c>
+      <c r="S3" s="17">
+        <v>2</v>
+      </c>
+      <c r="T3" s="17">
+        <v>2</v>
+      </c>
+      <c r="U3" s="17">
+        <v>3</v>
+      </c>
+      <c r="V3" s="18">
+        <v>6</v>
+      </c>
+      <c r="W3" s="9">
+        <f>AVERAGE(G3:N3)</f>
+        <v>4.5</v>
+      </c>
+      <c r="X3" s="9">
+        <f>AVERAGE(O3:V3)</f>
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="9">
+        <v>6</v>
+      </c>
+      <c r="D4" s="11">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3</v>
+      </c>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17">
+        <v>3</v>
+      </c>
+      <c r="J4" s="17">
+        <v>11</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1</v>
+      </c>
+      <c r="M4" s="17">
+        <v>1</v>
+      </c>
+      <c r="N4" s="17">
+        <v>1</v>
+      </c>
+      <c r="O4" s="16">
+        <v>8</v>
+      </c>
+      <c r="P4" s="17">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>6</v>
+      </c>
+      <c r="R4" s="17">
+        <v>3</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2</v>
+      </c>
+      <c r="T4" s="17">
+        <v>4</v>
+      </c>
+      <c r="U4" s="17">
+        <v>1</v>
+      </c>
+      <c r="V4" s="18">
+        <v>1</v>
+      </c>
+      <c r="W4" s="9">
+        <f>AVERAGE(G4:N4)</f>
+        <v>4.5</v>
+      </c>
+      <c r="X4" s="9">
+        <f>AVERAGE(O4:V4)</f>
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="16">
+        <v>12</v>
+      </c>
+      <c r="H5" s="17">
+        <v>10</v>
+      </c>
+      <c r="I5" s="17">
+        <v>10</v>
+      </c>
+      <c r="J5" s="17">
+        <v>6</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17">
+        <v>4</v>
+      </c>
+      <c r="M5" s="17">
+        <v>5</v>
+      </c>
+      <c r="N5" s="17">
+        <v>1</v>
+      </c>
+      <c r="O5" s="16">
+        <v>4</v>
+      </c>
+      <c r="P5" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>6</v>
+      </c>
+      <c r="R5" s="17">
+        <v>3</v>
+      </c>
+      <c r="S5" s="17">
+        <v>3</v>
+      </c>
+      <c r="T5" s="17">
+        <v>2</v>
+      </c>
+      <c r="U5" s="17">
+        <v>1</v>
+      </c>
+      <c r="V5" s="18">
+        <v>3</v>
+      </c>
+      <c r="W5" s="9">
+        <f>AVERAGE(G5:N5)</f>
+        <v>6.125</v>
+      </c>
+      <c r="X5" s="9">
+        <f>AVERAGE(O5:V5)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17">
+        <v>14</v>
+      </c>
+      <c r="I6" s="17">
+        <v>17</v>
+      </c>
+      <c r="J6" s="17">
+        <v>3</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2</v>
+      </c>
+      <c r="L6" s="17">
+        <v>4</v>
+      </c>
+      <c r="M6" s="17">
+        <v>4</v>
+      </c>
+      <c r="N6" s="17">
+        <v>5</v>
+      </c>
+      <c r="O6" s="16">
+        <v>11</v>
+      </c>
+      <c r="P6" s="17">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>8</v>
+      </c>
+      <c r="R6" s="17">
+        <v>3</v>
+      </c>
+      <c r="S6" s="17">
+        <v>3</v>
+      </c>
+      <c r="T6" s="17">
+        <v>3</v>
+      </c>
+      <c r="U6" s="17">
+        <v>2</v>
+      </c>
+      <c r="V6" s="18">
+        <v>4</v>
+      </c>
+      <c r="W6" s="9">
+        <f>AVERAGE(G6:N6)</f>
+        <v>7.375</v>
+      </c>
+      <c r="X6" s="9">
+        <f>AVERAGE(O6:V6)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="15">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="I7" s="15">
+        <v>3</v>
+      </c>
+      <c r="J7" s="15">
+        <v>4</v>
+      </c>
+      <c r="K7" s="15">
+        <v>2</v>
+      </c>
+      <c r="L7" s="15">
+        <v>2</v>
+      </c>
+      <c r="M7" s="15">
+        <v>2</v>
+      </c>
+      <c r="N7" s="15">
+        <v>2</v>
+      </c>
+      <c r="O7" s="19">
+        <v>10</v>
+      </c>
+      <c r="P7" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="20">
+        <v>4</v>
+      </c>
+      <c r="R7" s="20">
+        <v>3</v>
+      </c>
+      <c r="S7" s="20">
+        <v>14</v>
+      </c>
+      <c r="T7" s="20">
+        <v>2</v>
+      </c>
+      <c r="U7" s="20">
+        <v>2</v>
+      </c>
+      <c r="V7" s="21">
+        <v>3</v>
+      </c>
+      <c r="W7" s="9">
+        <f>AVERAGE(G7:N7)</f>
+        <v>3</v>
+      </c>
+      <c r="X7" s="9">
+        <f>AVERAGE(O7:V7)</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>1</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1</v>
+      </c>
+      <c r="M8" s="17">
+        <v>4</v>
+      </c>
+      <c r="N8" s="17">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="O8" s="16">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="P8" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>2</v>
+      </c>
+      <c r="R8" s="17">
+        <v>1</v>
+      </c>
+      <c r="S8" s="17">
+        <v>4</v>
+      </c>
+      <c r="T8" s="17">
+        <v>4</v>
+      </c>
+      <c r="U8" s="17">
+        <v>3</v>
+      </c>
+      <c r="V8" s="18">
+        <v>7</v>
+      </c>
+      <c r="W8" s="9">
+        <f>AVERAGE(G8:N8)</f>
+        <v>1.875</v>
+      </c>
+      <c r="X8" s="9">
+        <f>AVERAGE(O8:V8)</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>2</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7</v>
+      </c>
+      <c r="D9" s="11">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>5</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="17">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2</v>
+      </c>
+      <c r="J9" s="17">
+        <v>3</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2</v>
+      </c>
+      <c r="L9" s="17">
+        <v>2</v>
+      </c>
+      <c r="M9" s="17">
+        <v>2</v>
+      </c>
+      <c r="N9" s="17">
+        <v>3</v>
+      </c>
+      <c r="O9" s="16">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="P9" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>8</v>
+      </c>
+      <c r="R9" s="17">
+        <v>7</v>
+      </c>
+      <c r="S9" s="17">
+        <v>8</v>
+      </c>
+      <c r="T9" s="17">
+        <v>5</v>
+      </c>
+      <c r="U9" s="17">
+        <v>8</v>
+      </c>
+      <c r="V9" s="18">
+        <v>3</v>
+      </c>
+      <c r="W9" s="9">
+        <f>AVERAGE(G9:N9)</f>
+        <v>2.625</v>
+      </c>
+      <c r="X9" s="9">
+        <f>AVERAGE(O9:V9)</f>
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>3</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9">
+        <v>7</v>
+      </c>
+      <c r="D10" s="11">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17">
+        <v>2</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17">
+        <v>3</v>
+      </c>
+      <c r="M10" s="17">
+        <v>3</v>
+      </c>
+      <c r="N10" s="17">
+        <v>5</v>
+      </c>
+      <c r="O10" s="16">
+        <v>5</v>
+      </c>
+      <c r="P10" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>3</v>
+      </c>
+      <c r="R10" s="17">
+        <v>3</v>
+      </c>
+      <c r="S10" s="17">
+        <v>5</v>
+      </c>
+      <c r="T10" s="17">
+        <v>4</v>
+      </c>
+      <c r="U10" s="17">
+        <v>3</v>
+      </c>
+      <c r="V10" s="18">
+        <v>5</v>
+      </c>
+      <c r="W10" s="9">
+        <f>AVERAGE(G10:N10)</f>
+        <v>2.5</v>
+      </c>
+      <c r="X10" s="9">
+        <f>AVERAGE(O10:V10)</f>
+        <v>3.875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="9">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="16">
+        <v>6</v>
+      </c>
+      <c r="H11" s="17">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17">
+        <v>2</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17">
+        <v>11</v>
+      </c>
+      <c r="L11" s="17">
+        <v>3</v>
+      </c>
+      <c r="M11" s="17">
+        <v>2</v>
+      </c>
+      <c r="N11" s="17">
+        <v>3</v>
+      </c>
+      <c r="O11" s="16">
+        <v>4</v>
+      </c>
+      <c r="P11" s="17">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>3</v>
+      </c>
+      <c r="R11" s="17">
+        <v>5</v>
+      </c>
+      <c r="S11" s="17">
+        <v>5</v>
+      </c>
+      <c r="T11" s="17">
+        <v>2</v>
+      </c>
+      <c r="U11" s="17">
+        <v>3</v>
+      </c>
+      <c r="V11" s="18">
+        <v>2</v>
+      </c>
+      <c r="W11" s="9">
+        <f>AVERAGE(G11:N11)</f>
+        <v>3.75</v>
+      </c>
+      <c r="X11" s="9">
+        <f>AVERAGE(O11:V11)</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>5</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>4</v>
+      </c>
+      <c r="G12" s="19">
+        <v>12</v>
+      </c>
+      <c r="H12" s="20">
+        <v>7</v>
+      </c>
+      <c r="I12" s="20">
+        <v>7</v>
+      </c>
+      <c r="J12" s="20">
         <v>10</v>
       </c>
-      <c r="J2">
+      <c r="K12" s="20">
         <v>2</v>
       </c>
-      <c r="K2" s="13">
+      <c r="L12" s="20">
+        <v>2</v>
+      </c>
+      <c r="M12" s="20">
+        <v>1</v>
+      </c>
+      <c r="N12" s="20">
+        <v>3</v>
+      </c>
+      <c r="O12" s="19">
+        <v>12</v>
+      </c>
+      <c r="P12" s="20">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>9</v>
+      </c>
+      <c r="R12" s="20">
+        <v>6</v>
+      </c>
+      <c r="S12" s="20">
+        <v>4</v>
+      </c>
+      <c r="T12" s="20">
+        <v>6</v>
+      </c>
+      <c r="U12" s="20">
+        <v>3</v>
+      </c>
+      <c r="V12" s="21">
+        <v>2</v>
+      </c>
+      <c r="W12" s="9">
+        <f>AVERAGE(G12:N12)</f>
+        <v>5.5</v>
+      </c>
+      <c r="X12" s="9">
+        <f>AVERAGE(O12:V12)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>1</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="11">
+        <v>7</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <v>2</v>
+      </c>
+      <c r="I13" s="17">
+        <v>4</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2</v>
+      </c>
+      <c r="K13" s="17">
+        <v>4</v>
+      </c>
+      <c r="L13" s="17">
+        <v>6</v>
+      </c>
+      <c r="M13" s="17">
+        <v>2</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="16">
+        <v>5</v>
+      </c>
+      <c r="P13" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>5</v>
+      </c>
+      <c r="R13" s="17">
+        <v>5</v>
+      </c>
+      <c r="S13" s="17">
+        <v>5</v>
+      </c>
+      <c r="T13" s="17">
+        <v>4</v>
+      </c>
+      <c r="U13" s="17">
+        <v>3</v>
+      </c>
+      <c r="V13" s="18"/>
+      <c r="W13" s="9">
+        <f>AVERAGE(G13:M13)</f>
+        <v>3.1428571428571428</v>
+      </c>
+      <c r="X13" s="9">
+        <f>AVERAGE(O13:U13)</f>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>2</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>5</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>7</v>
+      </c>
+      <c r="J14" s="17">
+        <v>2</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17">
+        <v>3</v>
+      </c>
+      <c r="M14" s="17">
+        <v>4</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="16">
+        <v>5</v>
+      </c>
+      <c r="P14" s="17">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>4</v>
+      </c>
+      <c r="R14" s="17">
+        <v>4</v>
+      </c>
+      <c r="S14" s="17">
+        <v>4</v>
+      </c>
+      <c r="T14" s="17">
+        <v>3</v>
+      </c>
+      <c r="U14" s="17">
+        <v>4</v>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="9">
+        <f>AVERAGE(G14:M14)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="X14" s="9">
+        <f>AVERAGE(O14:U14)</f>
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6</v>
+      </c>
+      <c r="D15" s="11">
+        <v>7</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="L15" s="17">
+        <v>5</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="16">
+        <v>4</v>
+      </c>
+      <c r="P15" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="17">
+        <v>7</v>
+      </c>
+      <c r="R15" s="17">
+        <v>2</v>
+      </c>
+      <c r="S15" s="17">
+        <v>2</v>
+      </c>
+      <c r="T15" s="17">
+        <v>15</v>
+      </c>
+      <c r="U15" s="17">
+        <v>1</v>
+      </c>
+      <c r="V15" s="18"/>
+      <c r="W15" s="9">
+        <f>AVERAGE(G15:M15)</f>
+        <v>2.7142857142857144</v>
+      </c>
+      <c r="X15" s="9">
+        <f>AVERAGE(O15:U15)</f>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>4</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="9">
+        <v>7</v>
+      </c>
+      <c r="D16" s="11">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>2</v>
+      </c>
+      <c r="I16" s="20">
+        <v>1</v>
+      </c>
+      <c r="J16" s="20">
+        <v>1</v>
+      </c>
+      <c r="K16" s="20">
+        <v>1</v>
+      </c>
+      <c r="L16" s="20">
+        <v>1</v>
+      </c>
+      <c r="M16" s="20">
+        <v>1</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="19">
+        <v>3</v>
+      </c>
+      <c r="P16" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="20">
+        <v>4</v>
+      </c>
+      <c r="R16" s="20">
+        <v>1</v>
+      </c>
+      <c r="S16" s="20">
+        <v>2</v>
+      </c>
+      <c r="T16" s="20">
+        <v>2</v>
+      </c>
+      <c r="U16" s="20">
+        <v>1</v>
+      </c>
+      <c r="V16" s="21"/>
+      <c r="W16" s="9">
+        <f>AVERAGE(G16:M16)</f>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="X16" s="9">
+        <f>AVERAGE(O16:U16)</f>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="9">
+        <v>7</v>
+      </c>
+      <c r="D17" s="11">
+        <v>6</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2</v>
+      </c>
+      <c r="G17" s="16">
+        <v>9</v>
+      </c>
+      <c r="H17" s="17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17">
+        <v>14</v>
+      </c>
+      <c r="J17" s="17">
+        <v>10</v>
+      </c>
+      <c r="K17" s="17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="17">
+        <v>3</v>
+      </c>
+      <c r="N17" s="17">
+        <v>5</v>
+      </c>
+      <c r="O17" s="16">
+        <v>3</v>
+      </c>
+      <c r="P17" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>4</v>
+      </c>
+      <c r="R17" s="17">
+        <v>2</v>
+      </c>
+      <c r="S17" s="17">
+        <v>2</v>
+      </c>
+      <c r="T17" s="17">
+        <v>2</v>
+      </c>
+      <c r="U17" s="17">
+        <v>2</v>
+      </c>
+      <c r="V17" s="18">
+        <v>2</v>
+      </c>
+      <c r="W17" s="9">
+        <f>AVERAGE(G17:N17)</f>
+        <v>7.25</v>
+      </c>
+      <c r="X17" s="9">
+        <f>AVERAGE(O17:V17)</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>2</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="9">
+        <v>4</v>
+      </c>
+      <c r="D18" s="11">
+        <v>7</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>7</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3</v>
+      </c>
+      <c r="I18" s="17">
+        <v>3</v>
+      </c>
+      <c r="J18" s="17">
+        <v>3</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2</v>
+      </c>
+      <c r="L18" s="17">
+        <v>3</v>
+      </c>
+      <c r="M18" s="17">
+        <v>4</v>
+      </c>
+      <c r="N18" s="17">
+        <v>1</v>
+      </c>
+      <c r="O18" s="16">
+        <v>5</v>
+      </c>
+      <c r="P18" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>4</v>
+      </c>
+      <c r="R18" s="17">
+        <v>3</v>
+      </c>
+      <c r="S18" s="17">
+        <v>1</v>
+      </c>
+      <c r="T18" s="17">
+        <v>4</v>
+      </c>
+      <c r="U18" s="17">
+        <v>1</v>
+      </c>
+      <c r="V18" s="18">
+        <v>4</v>
+      </c>
+      <c r="W18" s="9">
+        <f>AVERAGE(G18:N18)</f>
+        <v>3.25</v>
+      </c>
+      <c r="X18" s="9">
+        <f>AVERAGE(O18:V18)</f>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>3</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11">
+        <v>7</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>25</v>
+      </c>
+      <c r="H19" s="17">
+        <v>20</v>
+      </c>
+      <c r="I19" s="17">
+        <v>9</v>
+      </c>
+      <c r="J19" s="17">
+        <v>13</v>
+      </c>
+      <c r="K19" s="17">
+        <v>6</v>
+      </c>
+      <c r="L19" s="17">
+        <v>3</v>
+      </c>
+      <c r="M19" s="17">
+        <v>3</v>
+      </c>
+      <c r="N19" s="17">
+        <v>2</v>
+      </c>
+      <c r="O19" s="16">
+        <v>5</v>
+      </c>
+      <c r="P19" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>2</v>
+      </c>
+      <c r="R19" s="17">
+        <v>3</v>
+      </c>
+      <c r="S19" s="17">
+        <v>6</v>
+      </c>
+      <c r="T19" s="17">
+        <v>3</v>
+      </c>
+      <c r="U19" s="17">
+        <v>1</v>
+      </c>
+      <c r="V19" s="18">
+        <v>2</v>
+      </c>
+      <c r="W19" s="9">
+        <f>AVERAGE(G19:N19)</f>
+        <v>10.125</v>
+      </c>
+      <c r="X19" s="9">
+        <f>AVERAGE(O19:V19)</f>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6</v>
+      </c>
+      <c r="D20" s="11">
+        <v>7</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <v>5</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3</v>
+      </c>
+      <c r="I20" s="17">
+        <v>2</v>
+      </c>
+      <c r="J20" s="17">
+        <v>5</v>
+      </c>
+      <c r="K20" s="17">
+        <v>2</v>
+      </c>
+      <c r="L20" s="17">
+        <v>12</v>
+      </c>
+      <c r="M20" s="17">
+        <v>2</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1</v>
+      </c>
+      <c r="O20" s="16">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="P20" s="17">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>11</v>
+      </c>
+      <c r="R20" s="17">
+        <v>4</v>
+      </c>
+      <c r="S20" s="17">
+        <v>7</v>
+      </c>
+      <c r="T20" s="17">
+        <v>4</v>
+      </c>
+      <c r="U20" s="17">
+        <v>1</v>
+      </c>
+      <c r="V20" s="18">
+        <v>2</v>
+      </c>
+      <c r="W20" s="9">
+        <f>AVERAGE(G20:N20)</f>
+        <v>4</v>
+      </c>
+      <c r="X20" s="9">
+        <f>AVERAGE(O20:V20)</f>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
         <v>5</v>
       </c>
-      <c r="M2">
+      <c r="B21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="10">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12">
+        <v>7</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>9</v>
+      </c>
+      <c r="H21" s="17">
+        <v>9</v>
+      </c>
+      <c r="I21" s="17">
         <v>8</v>
       </c>
-      <c r="N2">
+      <c r="J21" s="17">
+        <v>6</v>
+      </c>
+      <c r="K21" s="17">
+        <v>3</v>
+      </c>
+      <c r="L21" s="17">
         <v>4</v>
       </c>
-      <c r="O2">
-        <v>11</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="9">
-        <f>AVERAGE(E2:J2)</f>
-        <v>6.166666666666667</v>
-      </c>
-      <c r="R2" s="9">
-        <f>AVERAGE(K2:P2)</f>
-        <v>7.666666666666667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="M21" s="17">
+        <v>3</v>
+      </c>
+      <c r="N21" s="17">
+        <v>3</v>
+      </c>
+      <c r="O21" s="16">
+        <v>3</v>
+      </c>
+      <c r="P21" s="17">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>4</v>
+      </c>
+      <c r="R21" s="17">
+        <v>5</v>
+      </c>
+      <c r="S21" s="17">
+        <v>4</v>
+      </c>
+      <c r="T21" s="17">
+        <v>4</v>
+      </c>
+      <c r="U21" s="17">
+        <v>1</v>
+      </c>
+      <c r="V21" s="18">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>2</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="W21" s="10">
+        <f>AVERAGE(G21:N21)</f>
+        <v>5.625</v>
+      </c>
+      <c r="X21" s="10">
+        <f>AVERAGE(O21:V21)</f>
         <v>4</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>14</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3" s="13">
-        <v>10</v>
-      </c>
-      <c r="L3">
-        <v>11</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
-      <c r="O3">
-        <v>18</v>
-      </c>
-      <c r="P3">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="9">
-        <f>AVERAGE(E3:J3)</f>
-        <v>10</v>
-      </c>
-      <c r="R3" s="9">
-        <f t="shared" ref="R3:R9" si="0">AVERAGE(K3:P3)</f>
-        <v>10.833333333333334</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="15">
-        <v>5</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="13">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>6</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <v>8</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="9">
-        <f>AVERAGE(E4:J4)</f>
-        <v>6.833333333333333</v>
-      </c>
-      <c r="R4" s="9">
-        <f t="shared" si="0"/>
-        <v>5.833333333333333</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="13">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5" s="9">
-        <f>AVERAGE(E5:J5)</f>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="R5" s="9">
-        <f t="shared" si="0"/>
-        <v>5.833333333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="15">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6" s="13">
-        <v>12</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>3</v>
-      </c>
-      <c r="O6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>14</v>
-      </c>
-      <c r="Q6" s="9">
-        <f>AVERAGE(E6:J6)</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="R6" s="9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="15">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>4</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" s="13">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="9">
-        <f>AVERAGE(E7:J7)</f>
-        <v>3</v>
-      </c>
-      <c r="R7" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="15">
-        <v>6</v>
-      </c>
-      <c r="D8" s="15">
-        <v>4</v>
-      </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="13">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="9">
-        <f>AVERAGE(E8:J8)</f>
-        <v>3</v>
-      </c>
-      <c r="R8" s="9">
-        <f t="shared" si="0"/>
-        <v>1.8333333333333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="17">
-        <v>6</v>
-      </c>
-      <c r="D9" s="17">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>5</v>
-      </c>
-      <c r="J9" s="8">
-        <v>2</v>
-      </c>
-      <c r="K9" s="14">
-        <v>4</v>
-      </c>
-      <c r="L9" s="8">
-        <v>6</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8">
-        <v>3</v>
-      </c>
-      <c r="O9" s="8">
-        <v>4</v>
-      </c>
-      <c r="P9" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q9" s="10">
-        <f>AVERAGE(E9:J9)</f>
-        <v>2</v>
-      </c>
-      <c r="R9" s="10">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="15">
-        <v>3</v>
-      </c>
-      <c r="D10" s="15">
-        <v>5</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="K10" s="13">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
-      </c>
-      <c r="N10">
-        <v>4</v>
-      </c>
-      <c r="O10">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="9">
-        <f>AVERAGE(E10:I10)</f>
-        <v>5</v>
-      </c>
-      <c r="R10" s="9">
-        <f>AVERAGE(K10:O10)</f>
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="15">
-        <v>5</v>
-      </c>
-      <c r="D11" s="15">
-        <v>5</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="9">
-        <f>AVERAGE(E11:I11)</f>
-        <v>3</v>
-      </c>
-      <c r="R11" s="9">
-        <f t="shared" ref="R11:R17" si="1">AVERAGE(K11:O11)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="15">
-        <v>5</v>
-      </c>
-      <c r="D12" s="15">
-        <v>3</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>7</v>
-      </c>
-      <c r="K12" s="13">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>8</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>9</v>
-      </c>
-      <c r="Q12" s="9">
-        <f>AVERAGE(E12:I12)</f>
-        <v>2.8</v>
-      </c>
-      <c r="R12" s="9">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="15">
-        <v>5</v>
-      </c>
-      <c r="D13" s="15">
-        <v>3</v>
-      </c>
-      <c r="E13" s="13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="K13" s="13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>7</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="N13">
-        <v>5</v>
-      </c>
-      <c r="O13">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="9">
-        <f>AVERAGE(E13:I13)</f>
-        <v>3.4</v>
-      </c>
-      <c r="R13" s="9">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="15">
-        <v>4</v>
-      </c>
-      <c r="D14" s="15">
-        <v>3</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>11</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="K14" s="13">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-      <c r="N14">
-        <v>5</v>
-      </c>
-      <c r="O14">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="9">
-        <f>AVERAGE(E14:I14)</f>
-        <v>3.4</v>
-      </c>
-      <c r="R14" s="9">
-        <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="13">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="K15" s="13">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15">
-        <v>6</v>
-      </c>
-      <c r="Q15" s="9">
-        <f>AVERAGE(E15:I15)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R15" s="9">
-        <f t="shared" si="1"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="15">
-        <v>5</v>
-      </c>
-      <c r="D16" s="15">
-        <v>4</v>
-      </c>
-      <c r="E16" s="13">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="K16" s="13">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>8</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="Q16" s="9">
-        <f>AVERAGE(E16:I16)</f>
-        <v>2.4</v>
-      </c>
-      <c r="R16" s="9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>8</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="14">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8">
-        <v>3</v>
-      </c>
-      <c r="G17" s="8">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8">
-        <v>3</v>
-      </c>
-      <c r="I17" s="8">
-        <v>3</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="14">
-        <v>7</v>
-      </c>
-      <c r="L17" s="8">
-        <v>3</v>
-      </c>
-      <c r="M17" s="8">
-        <v>5</v>
-      </c>
-      <c r="N17" s="8">
-        <v>2</v>
-      </c>
-      <c r="O17" s="8">
-        <v>2</v>
-      </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="10">
-        <f>AVERAGE(E17:I17)</f>
-        <v>3.8</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="1"/>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="15">
-        <v>4</v>
-      </c>
-      <c r="D18" s="15">
-        <v>3</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="13">
-        <v>5</v>
-      </c>
-      <c r="L18" s="18">
-        <v>5</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="11">
-        <f>AVERAGE(E18:H18)</f>
-        <v>2.75</v>
-      </c>
-      <c r="R18" s="11">
-        <f>AVERAGE(K18:N18)</f>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="15">
-        <v>4</v>
-      </c>
-      <c r="D19" s="15">
-        <v>4</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="K19" s="13">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>5</v>
-      </c>
-      <c r="N19">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="11">
-        <f t="shared" ref="Q19:R32" si="2">AVERAGE(E19:H19)</f>
-        <v>2</v>
-      </c>
-      <c r="R19" s="11">
-        <f t="shared" ref="R19:R24" si="3">AVERAGE(K19:N19)</f>
-        <v>3.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15">
-        <v>4</v>
-      </c>
-      <c r="E20" s="13">
-        <v>4</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="13">
-        <v>5</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" si="2"/>
-        <v>4.25</v>
-      </c>
-      <c r="R20" s="11">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="15">
-        <v>4</v>
-      </c>
-      <c r="D21" s="15">
-        <v>3</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="K21" s="13">
-        <v>5</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="11">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-      <c r="R21" s="11">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="15">
-        <v>4</v>
-      </c>
-      <c r="D22" s="15">
-        <v>4</v>
-      </c>
-      <c r="E22" s="13">
-        <v>4</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="K22" s="13">
-        <v>5</v>
-      </c>
-      <c r="L22">
-        <v>4</v>
-      </c>
-      <c r="M22">
-        <v>2</v>
-      </c>
-      <c r="N22">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="11">
-        <f t="shared" si="2"/>
-        <v>1.75</v>
-      </c>
-      <c r="R22" s="11">
-        <f t="shared" si="3"/>
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="15">
-        <v>3</v>
-      </c>
-      <c r="D23" s="15">
-        <v>4</v>
-      </c>
-      <c r="E23" s="13">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="13">
-        <v>4</v>
-      </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23">
-        <v>15</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="11">
-        <f t="shared" si="2"/>
-        <v>3.75</v>
-      </c>
-      <c r="R23" s="11">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <v>7</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="17">
-        <v>4</v>
-      </c>
-      <c r="D24" s="17">
-        <v>4</v>
-      </c>
-      <c r="E24" s="14">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8">
-        <v>4</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="14">
-        <v>3</v>
-      </c>
-      <c r="L24" s="8">
-        <v>4</v>
-      </c>
-      <c r="M24" s="8">
-        <v>1</v>
-      </c>
-      <c r="N24" s="8">
-        <v>1</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="12">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="R24" s="12">
-        <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="13">
-        <v>9</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>25</v>
-      </c>
-      <c r="H25">
-        <v>5</v>
-      </c>
-      <c r="I25">
-        <v>9</v>
-      </c>
-      <c r="K25" s="13">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>5</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <v>8</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="11">
-        <f>AVERAGE(E25:I25)</f>
-        <v>11</v>
-      </c>
-      <c r="R25" s="11">
-        <f>AVERAGE(K25:O25)</f>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="15">
-        <v>1</v>
-      </c>
-      <c r="D26" s="15">
-        <v>3</v>
-      </c>
-      <c r="E26" s="13">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>9</v>
-      </c>
-      <c r="K26" s="13">
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
-        <v>5</v>
-      </c>
-      <c r="N26">
-        <v>6</v>
-      </c>
-      <c r="O26">
-        <v>9</v>
-      </c>
-      <c r="Q26" s="11">
-        <f t="shared" ref="Q26:R32" si="4">AVERAGE(E26:I26)</f>
-        <v>9</v>
-      </c>
-      <c r="R26" s="11">
-        <f t="shared" ref="R26:R32" si="5">AVERAGE(K26:O26)</f>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="15">
-        <v>4</v>
-      </c>
-      <c r="D27" s="15">
-        <v>5</v>
-      </c>
-      <c r="E27" s="13">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>9</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="K27" s="13">
-        <v>4</v>
-      </c>
-      <c r="L27">
-        <v>4</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>11</v>
-      </c>
-      <c r="O27">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="11">
-        <f t="shared" si="4"/>
-        <v>7.2</v>
-      </c>
-      <c r="R27" s="11">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="15">
-        <v>4</v>
-      </c>
-      <c r="D28" s="15">
-        <v>5</v>
-      </c>
-      <c r="E28" s="13">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>3</v>
-      </c>
-      <c r="G28">
-        <v>13</v>
-      </c>
-      <c r="H28">
-        <v>5</v>
-      </c>
-      <c r="I28">
-        <v>6</v>
-      </c>
-      <c r="K28" s="13">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>3</v>
-      </c>
-      <c r="N28">
-        <v>4</v>
-      </c>
-      <c r="O28">
-        <v>5</v>
-      </c>
-      <c r="Q28" s="11">
-        <f t="shared" si="4"/>
-        <v>7.4</v>
-      </c>
-      <c r="R28" s="11">
-        <f t="shared" si="5"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="15">
-        <v>5</v>
-      </c>
-      <c r="D29" s="15">
-        <v>5</v>
-      </c>
-      <c r="E29" s="13">
-        <v>4</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29">
-        <v>6</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="K29" s="13">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>6</v>
-      </c>
-      <c r="N29">
-        <v>7</v>
-      </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="11">
-        <f t="shared" si="4"/>
-        <v>3.4</v>
-      </c>
-      <c r="R29" s="11">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="15">
-        <v>4</v>
-      </c>
-      <c r="D30" s="15">
-        <v>5</v>
-      </c>
-      <c r="E30" s="13">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>12</v>
-      </c>
-      <c r="I30">
-        <v>4</v>
-      </c>
-      <c r="K30" s="13">
-        <v>2</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>4</v>
-      </c>
-      <c r="O30">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="11">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="R30" s="11">
-        <f t="shared" si="5"/>
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="15">
-        <v>5</v>
-      </c>
-      <c r="D31" s="15">
-        <v>5</v>
-      </c>
-      <c r="E31" s="13">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="K31" s="13">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="11">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="R31" s="11">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="15">
-        <v>5</v>
-      </c>
-      <c r="D32" s="15">
-        <v>5</v>
-      </c>
-      <c r="E32" s="13">
-        <v>5</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>3</v>
-      </c>
-      <c r="K32" s="13">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>4</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="11">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
-      </c>
-      <c r="R32" s="11">
-        <f t="shared" si="5"/>
-        <v>2.4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/risultati.xlsx
+++ b/risultati.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xzeni\OneDrive\Desktop\CodeSmell-DesignPattern-Experiment-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2409AF1-ABAA-457D-898D-D603E76BAC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58875307-D38E-4209-A0A7-46C663D6EBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -914,10 +914,10 @@
     <t>EM_8</t>
   </si>
   <si>
-    <t>Errate _Comprensione</t>
-  </si>
-  <si>
-    <t>Errate_Manutenzione</t>
+    <t>Rapporto_Comprensione</t>
+  </si>
+  <si>
+    <t>Rapporto_Manutenzione</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1196,12 +1195,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6843,7 +6843,7 @@
   <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6857,76 +6857,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6937,72 +6937,74 @@
       <c r="B2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="23">
         <v>6</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="19">
         <v>3</v>
       </c>
-      <c r="E2" s="28">
-        <v>2</v>
-      </c>
-      <c r="F2" s="21">
-        <v>5</v>
+      <c r="E2" s="25">
+        <f>C2/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="F2" s="24">
+        <f>D2/8</f>
+        <v>0.375</v>
       </c>
       <c r="G2" s="8">
         <v>7</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2">
         <v>3</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>8</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="16">
         <v>10</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="16">
         <v>5</v>
       </c>
-      <c r="R2" s="17">
+      <c r="R2" s="16">
         <v>3</v>
       </c>
-      <c r="S2" s="17">
+      <c r="S2" s="16">
         <v>12</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="16">
         <v>2</v>
       </c>
-      <c r="U2" s="17">
+      <c r="U2" s="16">
         <v>2</v>
       </c>
-      <c r="V2" s="18">
+      <c r="V2" s="17">
         <v>4</v>
       </c>
-      <c r="W2" s="28">
-        <f>AVERAGE(G2:N2)</f>
+      <c r="W2" s="23">
+        <f t="shared" ref="W2:W12" si="0">AVERAGE(G2:N2)</f>
         <v>3.25</v>
       </c>
-      <c r="X2" s="28">
-        <f>AVERAGE(O2:V2)</f>
+      <c r="X2" s="23">
+        <f t="shared" ref="X2:X12" si="1">AVERAGE(O2:V2)</f>
         <v>5.75</v>
       </c>
     </row>
@@ -7016,69 +7018,71 @@
       <c r="C3" s="9">
         <v>6</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="24">
         <v>5</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="26">
+        <f t="shared" ref="E3:E12" si="2">C3/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="24">
+        <f t="shared" ref="F3:F12" si="3">D3/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="G3" s="18">
+        <v>5</v>
+      </c>
+      <c r="H3" s="19">
+        <v>8</v>
+      </c>
+      <c r="I3" s="19">
+        <v>6</v>
+      </c>
+      <c r="J3" s="19">
+        <v>6</v>
+      </c>
+      <c r="K3" s="19">
         <v>2</v>
       </c>
-      <c r="F3" s="11">
+      <c r="L3" s="19">
+        <v>4</v>
+      </c>
+      <c r="M3" s="22">
         <v>3</v>
       </c>
-      <c r="G3" s="19">
+      <c r="N3" s="19">
+        <v>2</v>
+      </c>
+      <c r="O3" s="15">
         <v>5</v>
       </c>
-      <c r="H3" s="20">
-        <v>8</v>
-      </c>
-      <c r="I3" s="20">
+      <c r="P3" s="16">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="16">
         <v>6</v>
       </c>
-      <c r="J3" s="20">
+      <c r="R3" s="16">
+        <v>20</v>
+      </c>
+      <c r="S3" s="16">
+        <v>2</v>
+      </c>
+      <c r="T3" s="16">
+        <v>2</v>
+      </c>
+      <c r="U3" s="16">
+        <v>3</v>
+      </c>
+      <c r="V3" s="17">
         <v>6</v>
       </c>
-      <c r="K3" s="20">
-        <v>2</v>
-      </c>
-      <c r="L3" s="20">
-        <v>4</v>
-      </c>
-      <c r="M3" s="25">
-        <v>3</v>
-      </c>
-      <c r="N3" s="20">
-        <v>2</v>
-      </c>
-      <c r="O3" s="16">
-        <v>5</v>
-      </c>
-      <c r="P3" s="17">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="17">
-        <v>6</v>
-      </c>
-      <c r="R3" s="17">
-        <v>20</v>
-      </c>
-      <c r="S3" s="17">
-        <v>2</v>
-      </c>
-      <c r="T3" s="17">
-        <v>2</v>
-      </c>
-      <c r="U3" s="17">
-        <v>3</v>
-      </c>
-      <c r="V3" s="18">
-        <v>6</v>
-      </c>
       <c r="W3" s="9">
-        <f>AVERAGE(G3:N3)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="X3" s="9">
-        <f>AVERAGE(O3:V3)</f>
+        <f t="shared" si="1"/>
         <v>6.875</v>
       </c>
     </row>
@@ -7092,69 +7096,71 @@
       <c r="C4" s="9">
         <v>6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="26">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
+        <v>17</v>
+      </c>
+      <c r="I4" s="16">
+        <v>3</v>
+      </c>
+      <c r="J4" s="16">
+        <v>11</v>
+      </c>
+      <c r="K4" s="16">
+        <v>1</v>
+      </c>
+      <c r="L4" s="16">
+        <v>1</v>
+      </c>
+      <c r="M4" s="16">
+        <v>1</v>
+      </c>
+      <c r="N4" s="16">
+        <v>1</v>
+      </c>
+      <c r="O4" s="15">
+        <v>8</v>
+      </c>
+      <c r="P4" s="16">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>6</v>
+      </c>
+      <c r="R4" s="16">
+        <v>3</v>
+      </c>
+      <c r="S4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="11">
-        <v>3</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="T4" s="16">
+        <v>4</v>
+      </c>
+      <c r="U4" s="16">
         <v>1</v>
       </c>
-      <c r="H4" s="17">
-        <v>17</v>
-      </c>
-      <c r="I4" s="17">
-        <v>3</v>
-      </c>
-      <c r="J4" s="17">
-        <v>11</v>
-      </c>
-      <c r="K4" s="17">
+      <c r="V4" s="17">
         <v>1</v>
       </c>
-      <c r="L4" s="17">
-        <v>1</v>
-      </c>
-      <c r="M4" s="17">
-        <v>1</v>
-      </c>
-      <c r="N4" s="17">
-        <v>1</v>
-      </c>
-      <c r="O4" s="16">
-        <v>8</v>
-      </c>
-      <c r="P4" s="17">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>6</v>
-      </c>
-      <c r="R4" s="17">
-        <v>3</v>
-      </c>
-      <c r="S4" s="17">
-        <v>2</v>
-      </c>
-      <c r="T4" s="17">
-        <v>4</v>
-      </c>
-      <c r="U4" s="17">
-        <v>1</v>
-      </c>
-      <c r="V4" s="18">
-        <v>1</v>
-      </c>
       <c r="W4" s="9">
-        <f>AVERAGE(G4:N4)</f>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="X4" s="9">
-        <f>AVERAGE(O4:V4)</f>
+        <f t="shared" si="1"/>
         <v>5.125</v>
       </c>
     </row>
@@ -7168,69 +7174,71 @@
       <c r="C5" s="9">
         <v>5</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="24">
         <v>4</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="26">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>12</v>
+      </c>
+      <c r="H5" s="16">
+        <v>10</v>
+      </c>
+      <c r="I5" s="16">
+        <v>10</v>
+      </c>
+      <c r="J5" s="16">
+        <v>6</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
+        <v>4</v>
+      </c>
+      <c r="M5" s="16">
+        <v>5</v>
+      </c>
+      <c r="N5" s="16">
+        <v>1</v>
+      </c>
+      <c r="O5" s="15">
+        <v>4</v>
+      </c>
+      <c r="P5" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>6</v>
+      </c>
+      <c r="R5" s="16">
         <v>3</v>
       </c>
-      <c r="F5" s="11">
-        <v>4</v>
-      </c>
-      <c r="G5" s="16">
-        <v>12</v>
-      </c>
-      <c r="H5" s="17">
-        <v>10</v>
-      </c>
-      <c r="I5" s="17">
-        <v>10</v>
-      </c>
-      <c r="J5" s="17">
-        <v>6</v>
-      </c>
-      <c r="K5" s="17">
+      <c r="S5" s="16">
+        <v>3</v>
+      </c>
+      <c r="T5" s="16">
+        <v>2</v>
+      </c>
+      <c r="U5" s="16">
         <v>1</v>
       </c>
-      <c r="L5" s="17">
-        <v>4</v>
-      </c>
-      <c r="M5" s="17">
-        <v>5</v>
-      </c>
-      <c r="N5" s="17">
-        <v>1</v>
-      </c>
-      <c r="O5" s="16">
-        <v>4</v>
-      </c>
-      <c r="P5" s="17">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>6</v>
-      </c>
-      <c r="R5" s="17">
+      <c r="V5" s="17">
         <v>3</v>
       </c>
-      <c r="S5" s="17">
-        <v>3</v>
-      </c>
-      <c r="T5" s="17">
-        <v>2</v>
-      </c>
-      <c r="U5" s="17">
-        <v>1</v>
-      </c>
-      <c r="V5" s="18">
-        <v>3</v>
-      </c>
       <c r="W5" s="9">
-        <f>AVERAGE(G5:N5)</f>
+        <f t="shared" si="0"/>
         <v>6.125</v>
       </c>
       <c r="X5" s="9">
-        <f>AVERAGE(O5:V5)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
     </row>
@@ -7244,69 +7252,71 @@
       <c r="C6" s="9">
         <v>5</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="24">
         <v>6</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="26">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="G6" s="15">
+        <v>10</v>
+      </c>
+      <c r="H6" s="16">
+        <v>14</v>
+      </c>
+      <c r="I6" s="16">
+        <v>17</v>
+      </c>
+      <c r="J6" s="16">
         <v>3</v>
       </c>
-      <c r="F6" s="11">
+      <c r="K6" s="16">
         <v>2</v>
       </c>
-      <c r="G6" s="16">
-        <v>10</v>
-      </c>
-      <c r="H6" s="17">
-        <v>14</v>
-      </c>
-      <c r="I6" s="17">
-        <v>17</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="L6" s="16">
+        <v>4</v>
+      </c>
+      <c r="M6" s="16">
+        <v>4</v>
+      </c>
+      <c r="N6" s="16">
+        <v>5</v>
+      </c>
+      <c r="O6" s="15">
+        <v>11</v>
+      </c>
+      <c r="P6" s="16">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>8</v>
+      </c>
+      <c r="R6" s="16">
         <v>3</v>
       </c>
-      <c r="K6" s="17">
+      <c r="S6" s="16">
+        <v>3</v>
+      </c>
+      <c r="T6" s="16">
+        <v>3</v>
+      </c>
+      <c r="U6" s="16">
         <v>2</v>
       </c>
-      <c r="L6" s="17">
+      <c r="V6" s="17">
         <v>4</v>
       </c>
-      <c r="M6" s="17">
-        <v>4</v>
-      </c>
-      <c r="N6" s="17">
-        <v>5</v>
-      </c>
-      <c r="O6" s="16">
-        <v>11</v>
-      </c>
-      <c r="P6" s="17">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>8</v>
-      </c>
-      <c r="R6" s="17">
-        <v>3</v>
-      </c>
-      <c r="S6" s="17">
-        <v>3</v>
-      </c>
-      <c r="T6" s="17">
-        <v>3</v>
-      </c>
-      <c r="U6" s="17">
-        <v>2</v>
-      </c>
-      <c r="V6" s="18">
-        <v>4</v>
-      </c>
       <c r="W6" s="9">
-        <f>AVERAGE(G6:N6)</f>
+        <f t="shared" si="0"/>
         <v>7.375</v>
       </c>
       <c r="X6" s="9">
-        <f>AVERAGE(O6:V6)</f>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
     </row>
@@ -7320,69 +7330,71 @@
       <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="24">
         <v>5</v>
       </c>
-      <c r="E7" s="9">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3</v>
+      <c r="E7" s="26">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="3"/>
+        <v>0.625</v>
       </c>
       <c r="G7" s="8">
         <v>2</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7">
         <v>7</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7">
         <v>2</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="18">
         <v>10</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="19">
         <v>4</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="19">
         <v>4</v>
       </c>
-      <c r="R7" s="20">
+      <c r="R7" s="19">
         <v>3</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="19">
         <v>14</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="19">
         <v>2</v>
       </c>
-      <c r="U7" s="20">
+      <c r="U7" s="19">
         <v>2</v>
       </c>
-      <c r="V7" s="21">
+      <c r="V7" s="20">
         <v>3</v>
       </c>
       <c r="W7" s="9">
-        <f>AVERAGE(G7:N7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="X7" s="9">
-        <f>AVERAGE(O7:V7)</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
     </row>
@@ -7396,69 +7408,71 @@
       <c r="C8" s="9">
         <v>8</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="24">
         <v>7</v>
       </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="26">
+        <f>C8/8</f>
         <v>1</v>
       </c>
-      <c r="G8" s="16">
+      <c r="F8" s="24">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="G8" s="15">
         <v>1</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>1</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>1</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="16">
         <v>1</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="16">
         <v>1</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="16">
         <v>1</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="16">
         <v>4</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N8" s="16">
         <v>5</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>1</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="16">
         <v>1</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="16">
         <v>2</v>
       </c>
-      <c r="R8" s="17">
+      <c r="R8" s="16">
         <v>1</v>
       </c>
-      <c r="S8" s="17">
+      <c r="S8" s="16">
         <v>4</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="16">
         <v>4</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="16">
         <v>3</v>
       </c>
-      <c r="V8" s="18">
+      <c r="V8" s="17">
         <v>7</v>
       </c>
       <c r="W8" s="9">
-        <f>AVERAGE(G8:N8)</f>
+        <f t="shared" si="0"/>
         <v>1.875</v>
       </c>
       <c r="X8" s="9">
-        <f>AVERAGE(O8:V8)</f>
+        <f t="shared" si="1"/>
         <v>2.875</v>
       </c>
     </row>
@@ -7472,69 +7486,71 @@
       <c r="C9" s="9">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="24">
         <v>3</v>
       </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="E9" s="26">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="3"/>
+        <v>0.375</v>
+      </c>
+      <c r="G9" s="15">
+        <v>4</v>
+      </c>
+      <c r="H9" s="16">
+        <v>3</v>
+      </c>
+      <c r="I9" s="16">
+        <v>2</v>
+      </c>
+      <c r="J9" s="16">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2</v>
+      </c>
+      <c r="L9" s="16">
+        <v>2</v>
+      </c>
+      <c r="M9" s="16">
+        <v>2</v>
+      </c>
+      <c r="N9" s="16">
+        <v>3</v>
+      </c>
+      <c r="O9" s="15">
+        <v>12</v>
+      </c>
+      <c r="P9" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>8</v>
+      </c>
+      <c r="R9" s="16">
+        <v>7</v>
+      </c>
+      <c r="S9" s="16">
+        <v>8</v>
+      </c>
+      <c r="T9" s="16">
         <v>5</v>
       </c>
-      <c r="G9" s="16">
-        <v>4</v>
-      </c>
-      <c r="H9" s="17">
+      <c r="U9" s="16">
+        <v>8</v>
+      </c>
+      <c r="V9" s="17">
         <v>3</v>
       </c>
-      <c r="I9" s="17">
-        <v>2</v>
-      </c>
-      <c r="J9" s="17">
-        <v>3</v>
-      </c>
-      <c r="K9" s="17">
-        <v>2</v>
-      </c>
-      <c r="L9" s="17">
-        <v>2</v>
-      </c>
-      <c r="M9" s="17">
-        <v>2</v>
-      </c>
-      <c r="N9" s="17">
-        <v>3</v>
-      </c>
-      <c r="O9" s="16">
-        <v>12</v>
-      </c>
-      <c r="P9" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>8</v>
-      </c>
-      <c r="R9" s="17">
-        <v>7</v>
-      </c>
-      <c r="S9" s="17">
-        <v>8</v>
-      </c>
-      <c r="T9" s="17">
-        <v>5</v>
-      </c>
-      <c r="U9" s="17">
-        <v>8</v>
-      </c>
-      <c r="V9" s="18">
-        <v>3</v>
-      </c>
       <c r="W9" s="9">
-        <f>AVERAGE(G9:N9)</f>
+        <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
       <c r="X9" s="9">
-        <f>AVERAGE(O9:V9)</f>
+        <f t="shared" si="1"/>
         <v>6.875</v>
       </c>
     </row>
@@ -7548,69 +7564,71 @@
       <c r="C10" s="9">
         <v>7</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="24">
         <v>7</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="26">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="3"/>
+        <v>0.875</v>
+      </c>
+      <c r="G10" s="15">
+        <v>2</v>
+      </c>
+      <c r="H10" s="16">
+        <v>2</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2</v>
+      </c>
+      <c r="J10" s="16">
+        <v>2</v>
+      </c>
+      <c r="K10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>2</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2</v>
-      </c>
-      <c r="I10" s="17">
-        <v>2</v>
-      </c>
-      <c r="J10" s="17">
-        <v>2</v>
-      </c>
-      <c r="K10" s="17">
-        <v>1</v>
-      </c>
-      <c r="L10" s="17">
+      <c r="L10" s="16">
         <v>3</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="16">
         <v>3</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>5</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>5</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="16">
         <v>3</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="16">
         <v>3</v>
       </c>
-      <c r="R10" s="17">
+      <c r="R10" s="16">
         <v>3</v>
       </c>
-      <c r="S10" s="17">
+      <c r="S10" s="16">
         <v>5</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="16">
         <v>4</v>
       </c>
-      <c r="U10" s="17">
+      <c r="U10" s="16">
         <v>3</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="17">
         <v>5</v>
       </c>
       <c r="W10" s="9">
-        <f>AVERAGE(G10:N10)</f>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="X10" s="9">
-        <f>AVERAGE(O10:V10)</f>
+        <f t="shared" si="1"/>
         <v>3.875</v>
       </c>
     </row>
@@ -7624,69 +7642,71 @@
       <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="24">
         <v>6</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="26">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="G11" s="15">
+        <v>6</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2</v>
+      </c>
+      <c r="J11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="16">
+        <v>11</v>
+      </c>
+      <c r="L11" s="16">
+        <v>3</v>
+      </c>
+      <c r="M11" s="16">
         <v>2</v>
       </c>
-      <c r="G11" s="16">
-        <v>6</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="N11" s="16">
+        <v>3</v>
+      </c>
+      <c r="O11" s="15">
+        <v>4</v>
+      </c>
+      <c r="P11" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>3</v>
+      </c>
+      <c r="R11" s="16">
+        <v>5</v>
+      </c>
+      <c r="S11" s="16">
+        <v>5</v>
+      </c>
+      <c r="T11" s="16">
         <v>2</v>
       </c>
-      <c r="I11" s="17">
+      <c r="U11" s="16">
+        <v>3</v>
+      </c>
+      <c r="V11" s="17">
         <v>2</v>
       </c>
-      <c r="J11" s="17">
-        <v>1</v>
-      </c>
-      <c r="K11" s="17">
-        <v>11</v>
-      </c>
-      <c r="L11" s="17">
-        <v>3</v>
-      </c>
-      <c r="M11" s="17">
-        <v>2</v>
-      </c>
-      <c r="N11" s="17">
-        <v>3</v>
-      </c>
-      <c r="O11" s="16">
-        <v>4</v>
-      </c>
-      <c r="P11" s="17">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>3</v>
-      </c>
-      <c r="R11" s="17">
-        <v>5</v>
-      </c>
-      <c r="S11" s="17">
-        <v>5</v>
-      </c>
-      <c r="T11" s="17">
-        <v>2</v>
-      </c>
-      <c r="U11" s="17">
-        <v>3</v>
-      </c>
-      <c r="V11" s="18">
-        <v>2</v>
-      </c>
       <c r="W11" s="9">
-        <f>AVERAGE(G11:N11)</f>
+        <f t="shared" si="0"/>
         <v>3.75</v>
       </c>
       <c r="X11" s="9">
-        <f>AVERAGE(O11:V11)</f>
+        <f t="shared" si="1"/>
         <v>3.125</v>
       </c>
     </row>
@@ -7700,69 +7720,71 @@
       <c r="C12" s="9">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="24">
         <v>4</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="26">
+        <f t="shared" si="2"/>
+        <v>0.875</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="18">
+        <v>12</v>
+      </c>
+      <c r="H12" s="19">
+        <v>7</v>
+      </c>
+      <c r="I12" s="19">
+        <v>7</v>
+      </c>
+      <c r="J12" s="19">
+        <v>10</v>
+      </c>
+      <c r="K12" s="19">
+        <v>2</v>
+      </c>
+      <c r="L12" s="19">
+        <v>2</v>
+      </c>
+      <c r="M12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="19">
+        <v>3</v>
+      </c>
+      <c r="O12" s="18">
+        <v>12</v>
+      </c>
+      <c r="P12" s="19">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>9</v>
+      </c>
+      <c r="R12" s="19">
+        <v>6</v>
+      </c>
+      <c r="S12" s="19">
         <v>4</v>
       </c>
-      <c r="G12" s="19">
-        <v>12</v>
-      </c>
-      <c r="H12" s="20">
-        <v>7</v>
-      </c>
-      <c r="I12" s="20">
-        <v>7</v>
-      </c>
-      <c r="J12" s="20">
-        <v>10</v>
-      </c>
-      <c r="K12" s="20">
+      <c r="T12" s="19">
+        <v>6</v>
+      </c>
+      <c r="U12" s="19">
+        <v>3</v>
+      </c>
+      <c r="V12" s="20">
         <v>2</v>
       </c>
-      <c r="L12" s="20">
-        <v>2</v>
-      </c>
-      <c r="M12" s="20">
-        <v>1</v>
-      </c>
-      <c r="N12" s="20">
-        <v>3</v>
-      </c>
-      <c r="O12" s="19">
-        <v>12</v>
-      </c>
-      <c r="P12" s="20">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>9</v>
-      </c>
-      <c r="R12" s="20">
-        <v>6</v>
-      </c>
-      <c r="S12" s="20">
-        <v>4</v>
-      </c>
-      <c r="T12" s="20">
-        <v>6</v>
-      </c>
-      <c r="U12" s="20">
-        <v>3</v>
-      </c>
-      <c r="V12" s="21">
-        <v>2</v>
-      </c>
       <c r="W12" s="9">
-        <f>AVERAGE(G12:N12)</f>
+        <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
       <c r="X12" s="9">
-        <f>AVERAGE(O12:V12)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -7776,59 +7798,61 @@
       <c r="C13" s="9">
         <v>5</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="24">
         <v>7</v>
       </c>
       <c r="E13" s="9">
+        <f>C13/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="F13" s="27">
+        <f>D13/7</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
         <v>2</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
+      <c r="H13" s="16">
         <v>2</v>
       </c>
-      <c r="H13" s="17">
+      <c r="I13" s="16">
+        <v>4</v>
+      </c>
+      <c r="J13" s="16">
         <v>2</v>
       </c>
-      <c r="I13" s="17">
+      <c r="K13" s="16">
         <v>4</v>
       </c>
-      <c r="J13" s="17">
+      <c r="L13" s="16">
+        <v>6</v>
+      </c>
+      <c r="M13" s="16">
         <v>2</v>
       </c>
-      <c r="K13" s="17">
+      <c r="N13" s="16"/>
+      <c r="O13" s="15">
+        <v>5</v>
+      </c>
+      <c r="P13" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>5</v>
+      </c>
+      <c r="R13" s="16">
+        <v>5</v>
+      </c>
+      <c r="S13" s="16">
+        <v>5</v>
+      </c>
+      <c r="T13" s="16">
         <v>4</v>
       </c>
-      <c r="L13" s="17">
-        <v>6</v>
-      </c>
-      <c r="M13" s="17">
-        <v>2</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="16">
-        <v>5</v>
-      </c>
-      <c r="P13" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>5</v>
-      </c>
-      <c r="R13" s="17">
-        <v>5</v>
-      </c>
-      <c r="S13" s="17">
-        <v>5</v>
-      </c>
-      <c r="T13" s="17">
-        <v>4</v>
-      </c>
-      <c r="U13" s="17">
+      <c r="U13" s="16">
         <v>3</v>
       </c>
-      <c r="V13" s="18"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="9">
         <f>AVERAGE(G13:M13)</f>
         <v>3.1428571428571428</v>
@@ -7848,59 +7872,61 @@
       <c r="C14" s="9">
         <v>6</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="24">
         <v>7</v>
       </c>
       <c r="E14" s="9">
+        <f t="shared" ref="E14:E16" si="4">C14/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F14" s="27">
+        <f t="shared" ref="F14:F16" si="5">D14/7</f>
         <v>1</v>
       </c>
-      <c r="F14" s="11">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>5</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="16">
         <v>1</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>7</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="16">
         <v>2</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="16">
         <v>1</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="16">
         <v>3</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="16">
         <v>4</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="16">
+      <c r="N14" s="16"/>
+      <c r="O14" s="15">
         <v>5</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="16">
         <v>3</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="16">
         <v>4</v>
       </c>
-      <c r="R14" s="17">
+      <c r="R14" s="16">
         <v>4</v>
       </c>
-      <c r="S14" s="17">
+      <c r="S14" s="16">
         <v>4</v>
       </c>
-      <c r="T14" s="17">
+      <c r="T14" s="16">
         <v>3</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="16">
         <v>4</v>
       </c>
-      <c r="V14" s="18"/>
+      <c r="V14" s="17"/>
       <c r="W14" s="9">
         <f>AVERAGE(G14:M14)</f>
         <v>3.2857142857142856</v>
@@ -7920,59 +7946,61 @@
       <c r="C15" s="9">
         <v>6</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="24">
         <v>7</v>
       </c>
       <c r="E15" s="9">
+        <f t="shared" si="4"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F15" s="27">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>3</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="16">
         <v>3</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>5</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="16">
         <v>1</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="16">
         <v>1</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="16">
         <v>5</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M15" s="16">
         <v>1</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="16">
+      <c r="N15" s="16"/>
+      <c r="O15" s="15">
         <v>4</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="16">
         <v>5</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="16">
         <v>7</v>
       </c>
-      <c r="R15" s="17">
+      <c r="R15" s="16">
         <v>2</v>
       </c>
-      <c r="S15" s="17">
+      <c r="S15" s="16">
         <v>2</v>
       </c>
-      <c r="T15" s="17">
+      <c r="T15" s="16">
         <v>15</v>
       </c>
-      <c r="U15" s="17">
+      <c r="U15" s="16">
         <v>1</v>
       </c>
-      <c r="V15" s="18"/>
+      <c r="V15" s="17"/>
       <c r="W15" s="9">
         <f>AVERAGE(G15:M15)</f>
         <v>2.7142857142857144</v>
@@ -7992,59 +8020,61 @@
       <c r="C16" s="9">
         <v>7</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="24">
         <v>5</v>
       </c>
       <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="27">
+        <f t="shared" si="5"/>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
         <v>2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="I16" s="19">
         <v>1</v>
       </c>
-      <c r="H16" s="20">
+      <c r="J16" s="19">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="19">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18">
+        <v>3</v>
+      </c>
+      <c r="P16" s="19">
         <v>2</v>
       </c>
-      <c r="I16" s="20">
+      <c r="Q16" s="19">
+        <v>4</v>
+      </c>
+      <c r="R16" s="19">
         <v>1</v>
       </c>
-      <c r="J16" s="20">
+      <c r="S16" s="19">
+        <v>2</v>
+      </c>
+      <c r="T16" s="19">
+        <v>2</v>
+      </c>
+      <c r="U16" s="19">
         <v>1</v>
       </c>
-      <c r="K16" s="20">
-        <v>1</v>
-      </c>
-      <c r="L16" s="20">
-        <v>1</v>
-      </c>
-      <c r="M16" s="20">
-        <v>1</v>
-      </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="19">
-        <v>3</v>
-      </c>
-      <c r="P16" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="20">
-        <v>4</v>
-      </c>
-      <c r="R16" s="20">
-        <v>1</v>
-      </c>
-      <c r="S16" s="20">
-        <v>2</v>
-      </c>
-      <c r="T16" s="20">
-        <v>2</v>
-      </c>
-      <c r="U16" s="20">
-        <v>1</v>
-      </c>
-      <c r="V16" s="21"/>
+      <c r="V16" s="20"/>
       <c r="W16" s="9">
         <f>AVERAGE(G16:M16)</f>
         <v>1.1428571428571428</v>
@@ -8064,61 +8094,63 @@
       <c r="C17" s="9">
         <v>7</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="24">
         <v>6</v>
       </c>
       <c r="E17" s="9">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
+        <f>C17/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="F17" s="27">
+        <f>D17/8</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="15">
+        <v>9</v>
+      </c>
+      <c r="H17" s="16">
+        <v>10</v>
+      </c>
+      <c r="I17" s="16">
+        <v>14</v>
+      </c>
+      <c r="J17" s="16">
+        <v>10</v>
+      </c>
+      <c r="K17" s="16">
+        <v>4</v>
+      </c>
+      <c r="L17" s="16">
+        <v>3</v>
+      </c>
+      <c r="M17" s="16">
+        <v>3</v>
+      </c>
+      <c r="N17" s="16">
+        <v>5</v>
+      </c>
+      <c r="O17" s="15">
+        <v>3</v>
+      </c>
+      <c r="P17" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>4</v>
+      </c>
+      <c r="R17" s="16">
         <v>2</v>
       </c>
-      <c r="G17" s="16">
-        <v>9</v>
-      </c>
-      <c r="H17" s="17">
-        <v>10</v>
-      </c>
-      <c r="I17" s="17">
-        <v>14</v>
-      </c>
-      <c r="J17" s="17">
-        <v>10</v>
-      </c>
-      <c r="K17" s="17">
-        <v>4</v>
-      </c>
-      <c r="L17" s="17">
-        <v>3</v>
-      </c>
-      <c r="M17" s="17">
-        <v>3</v>
-      </c>
-      <c r="N17" s="17">
-        <v>5</v>
-      </c>
-      <c r="O17" s="16">
-        <v>3</v>
-      </c>
-      <c r="P17" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>4</v>
-      </c>
-      <c r="R17" s="17">
+      <c r="S17" s="16">
         <v>2</v>
       </c>
-      <c r="S17" s="17">
+      <c r="T17" s="16">
         <v>2</v>
       </c>
-      <c r="T17" s="17">
+      <c r="U17" s="16">
         <v>2</v>
       </c>
-      <c r="U17" s="17">
-        <v>2</v>
-      </c>
-      <c r="V17" s="18">
+      <c r="V17" s="17">
         <v>2</v>
       </c>
       <c r="W17" s="9">
@@ -8140,61 +8172,63 @@
       <c r="C18" s="9">
         <v>4</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="24">
         <v>7</v>
       </c>
       <c r="E18" s="9">
+        <f t="shared" ref="E18:E21" si="6">C18/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="27">
+        <f t="shared" ref="F18:F21" si="7">D18/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="G18" s="15">
+        <v>7</v>
+      </c>
+      <c r="H18" s="16">
+        <v>3</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3</v>
+      </c>
+      <c r="J18" s="16">
+        <v>3</v>
+      </c>
+      <c r="K18" s="16">
+        <v>2</v>
+      </c>
+      <c r="L18" s="16">
+        <v>3</v>
+      </c>
+      <c r="M18" s="16">
         <v>4</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="16">
         <v>1</v>
       </c>
-      <c r="G18" s="16">
-        <v>7</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="O18" s="15">
+        <v>5</v>
+      </c>
+      <c r="P18" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>4</v>
+      </c>
+      <c r="R18" s="16">
         <v>3</v>
       </c>
-      <c r="I18" s="17">
-        <v>3</v>
-      </c>
-      <c r="J18" s="17">
-        <v>3</v>
-      </c>
-      <c r="K18" s="17">
-        <v>2</v>
-      </c>
-      <c r="L18" s="17">
-        <v>3</v>
-      </c>
-      <c r="M18" s="17">
+      <c r="S18" s="16">
+        <v>1</v>
+      </c>
+      <c r="T18" s="16">
         <v>4</v>
       </c>
-      <c r="N18" s="17">
+      <c r="U18" s="16">
         <v>1</v>
       </c>
-      <c r="O18" s="16">
-        <v>5</v>
-      </c>
-      <c r="P18" s="17">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>4</v>
-      </c>
-      <c r="R18" s="17">
-        <v>3</v>
-      </c>
-      <c r="S18" s="17">
-        <v>1</v>
-      </c>
-      <c r="T18" s="17">
-        <v>4</v>
-      </c>
-      <c r="U18" s="17">
-        <v>1</v>
-      </c>
-      <c r="V18" s="18">
+      <c r="V18" s="17">
         <v>4</v>
       </c>
       <c r="W18" s="9">
@@ -8216,61 +8250,63 @@
       <c r="C19" s="9">
         <v>5</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="24">
         <v>7</v>
       </c>
       <c r="E19" s="9">
+        <f t="shared" si="6"/>
+        <v>0.625</v>
+      </c>
+      <c r="F19" s="27">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="G19" s="15">
+        <v>25</v>
+      </c>
+      <c r="H19" s="16">
+        <v>20</v>
+      </c>
+      <c r="I19" s="16">
+        <v>9</v>
+      </c>
+      <c r="J19" s="16">
+        <v>13</v>
+      </c>
+      <c r="K19" s="16">
+        <v>6</v>
+      </c>
+      <c r="L19" s="16">
         <v>3</v>
       </c>
-      <c r="F19" s="11">
+      <c r="M19" s="16">
+        <v>3</v>
+      </c>
+      <c r="N19" s="16">
+        <v>2</v>
+      </c>
+      <c r="O19" s="15">
+        <v>5</v>
+      </c>
+      <c r="P19" s="16">
+        <v>5</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>2</v>
+      </c>
+      <c r="R19" s="16">
+        <v>3</v>
+      </c>
+      <c r="S19" s="16">
+        <v>6</v>
+      </c>
+      <c r="T19" s="16">
+        <v>3</v>
+      </c>
+      <c r="U19" s="16">
         <v>1</v>
       </c>
-      <c r="G19" s="16">
-        <v>25</v>
-      </c>
-      <c r="H19" s="17">
-        <v>20</v>
-      </c>
-      <c r="I19" s="17">
-        <v>9</v>
-      </c>
-      <c r="J19" s="17">
-        <v>13</v>
-      </c>
-      <c r="K19" s="17">
-        <v>6</v>
-      </c>
-      <c r="L19" s="17">
-        <v>3</v>
-      </c>
-      <c r="M19" s="17">
-        <v>3</v>
-      </c>
-      <c r="N19" s="17">
-        <v>2</v>
-      </c>
-      <c r="O19" s="16">
-        <v>5</v>
-      </c>
-      <c r="P19" s="17">
-        <v>5</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>2</v>
-      </c>
-      <c r="R19" s="17">
-        <v>3</v>
-      </c>
-      <c r="S19" s="17">
-        <v>6</v>
-      </c>
-      <c r="T19" s="17">
-        <v>3</v>
-      </c>
-      <c r="U19" s="17">
-        <v>1</v>
-      </c>
-      <c r="V19" s="18">
+      <c r="V19" s="17">
         <v>2</v>
       </c>
       <c r="W19" s="9">
@@ -8292,61 +8328,63 @@
       <c r="C20" s="9">
         <v>6</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="24">
         <v>7</v>
       </c>
       <c r="E20" s="9">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="G20" s="15">
+        <v>5</v>
+      </c>
+      <c r="H20" s="16">
+        <v>3</v>
+      </c>
+      <c r="I20" s="16">
         <v>2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="J20" s="16">
+        <v>5</v>
+      </c>
+      <c r="K20" s="16">
+        <v>2</v>
+      </c>
+      <c r="L20" s="16">
+        <v>12</v>
+      </c>
+      <c r="M20" s="16">
+        <v>2</v>
+      </c>
+      <c r="N20" s="16">
         <v>1</v>
       </c>
-      <c r="G20" s="16">
-        <v>5</v>
-      </c>
-      <c r="H20" s="17">
-        <v>3</v>
-      </c>
-      <c r="I20" s="17">
-        <v>2</v>
-      </c>
-      <c r="J20" s="17">
-        <v>5</v>
-      </c>
-      <c r="K20" s="17">
-        <v>2</v>
-      </c>
-      <c r="L20" s="17">
-        <v>12</v>
-      </c>
-      <c r="M20" s="17">
-        <v>2</v>
-      </c>
-      <c r="N20" s="17">
+      <c r="O20" s="15">
+        <v>8</v>
+      </c>
+      <c r="P20" s="16">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>11</v>
+      </c>
+      <c r="R20" s="16">
+        <v>4</v>
+      </c>
+      <c r="S20" s="16">
+        <v>7</v>
+      </c>
+      <c r="T20" s="16">
+        <v>4</v>
+      </c>
+      <c r="U20" s="16">
         <v>1</v>
       </c>
-      <c r="O20" s="16">
-        <v>8</v>
-      </c>
-      <c r="P20" s="17">
-        <v>6</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>11</v>
-      </c>
-      <c r="R20" s="17">
-        <v>4</v>
-      </c>
-      <c r="S20" s="17">
-        <v>7</v>
-      </c>
-      <c r="T20" s="17">
-        <v>4</v>
-      </c>
-      <c r="U20" s="17">
-        <v>1</v>
-      </c>
-      <c r="V20" s="18">
+      <c r="V20" s="17">
         <v>2</v>
       </c>
       <c r="W20" s="9">
@@ -8368,61 +8406,63 @@
       <c r="C21" s="10">
         <v>7</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="7">
         <v>7</v>
       </c>
       <c r="E21" s="10">
+        <f t="shared" si="6"/>
+        <v>0.875</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="7"/>
+        <v>0.875</v>
+      </c>
+      <c r="G21" s="15">
+        <v>9</v>
+      </c>
+      <c r="H21" s="16">
+        <v>9</v>
+      </c>
+      <c r="I21" s="16">
+        <v>8</v>
+      </c>
+      <c r="J21" s="16">
+        <v>6</v>
+      </c>
+      <c r="K21" s="16">
+        <v>3</v>
+      </c>
+      <c r="L21" s="16">
+        <v>4</v>
+      </c>
+      <c r="M21" s="16">
+        <v>3</v>
+      </c>
+      <c r="N21" s="16">
+        <v>3</v>
+      </c>
+      <c r="O21" s="15">
+        <v>3</v>
+      </c>
+      <c r="P21" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>4</v>
+      </c>
+      <c r="R21" s="16">
+        <v>5</v>
+      </c>
+      <c r="S21" s="16">
+        <v>4</v>
+      </c>
+      <c r="T21" s="16">
+        <v>4</v>
+      </c>
+      <c r="U21" s="16">
         <v>1</v>
       </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <v>9</v>
-      </c>
-      <c r="H21" s="17">
-        <v>9</v>
-      </c>
-      <c r="I21" s="17">
-        <v>8</v>
-      </c>
-      <c r="J21" s="17">
-        <v>6</v>
-      </c>
-      <c r="K21" s="17">
-        <v>3</v>
-      </c>
-      <c r="L21" s="17">
-        <v>4</v>
-      </c>
-      <c r="M21" s="17">
-        <v>3</v>
-      </c>
-      <c r="N21" s="17">
-        <v>3</v>
-      </c>
-      <c r="O21" s="16">
-        <v>3</v>
-      </c>
-      <c r="P21" s="17">
-        <v>9</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>4</v>
-      </c>
-      <c r="R21" s="17">
-        <v>5</v>
-      </c>
-      <c r="S21" s="17">
-        <v>4</v>
-      </c>
-      <c r="T21" s="17">
-        <v>4</v>
-      </c>
-      <c r="U21" s="17">
-        <v>1</v>
-      </c>
-      <c r="V21" s="18">
+      <c r="V21" s="17">
         <v>2</v>
       </c>
       <c r="W21" s="10">
